--- a/data/davis matches/davis_2016.xlsx
+++ b/data/davis matches/davis_2016.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB135"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>862</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr"/>
@@ -824,12 +824,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>184</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>868</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -1014,7 +1014,7 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB6" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>337=</t>
+          <t>338=</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>286</t>
         </is>
       </c>
       <c r="AB7" t="n">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222</t>
         </is>
       </c>
       <c r="X9" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
@@ -1825,7 +1825,7 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>164</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -1836,7 +1836,7 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AB15" t="n">
@@ -2189,7 +2189,7 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>827</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>827</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>350</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -3016,12 +3016,12 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>306</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>314</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>1080=</t>
+          <t>1079=</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>551=</t>
+          <t>547=</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
@@ -3459,7 +3459,7 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr">
         <is>
-          <t>1126=</t>
+          <t>1132=</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>291</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>551=</t>
+          <t>547=</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>291</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -4240,12 +4240,12 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr"/>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>136</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -4435,12 +4435,12 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="AB45" t="n">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>136</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -4924,12 +4924,12 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>1371=</t>
+          <t>1364=</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>1371=</t>
+          <t>1364=</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr"/>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>660</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -6070,7 +6070,7 @@
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AB64" t="n">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>660</t>
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>624</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
@@ -6578,12 +6578,12 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>78</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>861=</t>
+          <t>864=</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr"/>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>98</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -6763,12 +6763,12 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>861=</t>
+          <t>864=</t>
         </is>
       </c>
       <c r="AB72" t="n">
@@ -6940,12 +6940,12 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>78</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>861=</t>
+          <t>864=</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>624</t>
         </is>
       </c>
       <c r="X76" t="inlineStr"/>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>98</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>452</t>
         </is>
       </c>
       <c r="X79" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>551=</t>
+          <t>547=</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr"/>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>631</t>
         </is>
       </c>
       <c r="X82" t="inlineStr"/>
@@ -7716,7 +7716,7 @@
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB83" t="n">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>551=</t>
+          <t>547=</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr"/>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>452</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
@@ -8216,12 +8216,12 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>952</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>1247=</t>
+          <t>1252=</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr"/>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>840</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr"/>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>840</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>1080=</t>
+          <t>1079=</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr"/>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>840</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr"/>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>952</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>1247=</t>
+          <t>1252=</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr"/>
@@ -8775,22 +8775,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
+          <t xml:space="preserve"> Werk Arena, Trinec, Czech Republic</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
+          <t xml:space="preserve"> Hard - Novacrylic Ultracushion System (2000, Indoor</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Head ATP</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -8799,16 +8799,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H96" t="n">
         <v>3</v>
       </c>
       <c r="I96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K96" t="n">
         <v>6</v>
@@ -8816,7 +8816,9 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="n">
+        <v>10</v>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8830,22 +8832,30 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>Jack Sock</t>
+          <t>Lukas Rosol</t>
         </is>
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>CZECHIA</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>24 Sep 1992</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
+          <t>24 Jul 1985</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>1364=</t>
+        </is>
+      </c>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
@@ -8861,22 +8871,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
+          <t xml:space="preserve"> Werk Arena, Trinec, Czech Republic</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
+          <t xml:space="preserve"> Hard - Novacrylic Ultracushion System (2000, Indoor</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Head ATP</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -8885,16 +8895,16 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H97" t="n">
         <v>6</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K97" t="n">
         <v>4</v>
@@ -8902,7 +8912,9 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
+      <c r="O97" t="n">
+        <v>8</v>
+      </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8916,25 +8928,21 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Jo-Wilfried Tsonga</t>
         </is>
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
+          <t>17 Apr 1985</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
@@ -8951,22 +8959,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
+          <t xml:space="preserve"> Werk Arena, Trinec, Czech Republic</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
+          <t xml:space="preserve"> Hard - Novacrylic Ultracushion System (2000, Indoor</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Head ATP</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -8978,14 +8986,16 @@
         <v>6</v>
       </c>
       <c r="H98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>2</v>
+      </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -9002,26 +9012,30 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>John Isner</t>
+          <t>Jiri Vesely</t>
         </is>
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>CZECHIA</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>26 Apr 1985</t>
+          <t>10 Jul 1993</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>664</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr"/>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>1048=</t>
+        </is>
+      </c>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
@@ -9037,22 +9051,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
+          <t xml:space="preserve"> Werk Arena, Trinec, Czech Republic</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
+          <t xml:space="preserve"> Hard - Novacrylic Ultracushion System (2000, Indoor</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Head ATP</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -9061,17 +9075,19 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H99" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>7</v>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -9088,26 +9104,30 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
+          <t>23 Feb 1994</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr"/>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
@@ -9123,22 +9143,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
+          <t xml:space="preserve"> Werk Arena, Trinec, Czech Republic</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
+          <t xml:space="preserve"> Hard - Novacrylic Ultracushion System (2000, Indoor</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Head ATP</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -9147,18 +9167,20 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>6</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
+        <v>6</v>
+      </c>
+      <c r="K100" t="n">
         <v>4</v>
       </c>
-      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
@@ -9176,29 +9198,37 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>Bob Bryan</t>
+          <t>Lukas Rosol</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Mike Bryan</t>
+          <t>Radek Stepanek</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>CZECHIA</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>29 Apr 1978</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
+          <t>24 Jul 1985</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>1364=</t>
+        </is>
+      </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>29 Apr 1978</t>
+          <t>27 Nov 1978</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr"/>
@@ -9215,22 +9245,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
+          <t xml:space="preserve"> Werk Arena, Trinec, Czech Republic</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
+          <t xml:space="preserve"> Hard - Novacrylic Ultracushion System (2000, Indoor</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Head ATP</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -9242,15 +9272,17 @@
         <v>6</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
         <v>6</v>
       </c>
       <c r="J101" t="n">
-        <v>6</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="K101" t="n">
+        <v>6</v>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
@@ -9268,39 +9300,43 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Pierre-Hugues Herbert</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Ivan Dodig</t>
+          <t>Nicolas Mahut</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
+          <t>18 Mar 1991</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr"/>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>02 Jan 1985</t>
+          <t>21 Jan 1982</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AB101" t="n">
@@ -9315,22 +9351,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
+          <t xml:space="preserve"> Werk Arena, Trinec, Czech Republic</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
+          <t xml:space="preserve"> Hard - Novacrylic Ultracushion System (2000, Indoor</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Head ATP</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -9342,17 +9378,19 @@
         <v>6</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I102" t="n">
         <v>4</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>9</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
@@ -9368,26 +9406,30 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>John Isner</t>
+          <t>Jiri Vesely</t>
         </is>
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>CZECHIA</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>26 Apr 1985</t>
+          <t>10 Jul 1993</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>664</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr"/>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>1048=</t>
+        </is>
+      </c>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
@@ -9403,22 +9445,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
+          <t xml:space="preserve"> Werk Arena, Trinec, Czech Republic</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
+          <t xml:space="preserve"> Hard - Novacrylic Ultracushion System (2000, Indoor</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Head ATP</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -9427,20 +9469,22 @@
         </is>
       </c>
       <c r="G103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" t="n">
         <v>7</v>
       </c>
-      <c r="H103" t="n">
-        <v>6</v>
-      </c>
       <c r="I103" t="n">
         <v>6</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>7</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>11</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>7</v>
+      </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
@@ -9456,25 +9500,21 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Jo-Wilfried Tsonga</t>
         </is>
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
+          <t>17 Apr 1985</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr"/>
@@ -9518,15 +9558,17 @@
         <v>4</v>
       </c>
       <c r="H104" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J104" t="n">
-        <v>4</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K104" t="n">
+        <v>6</v>
+      </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
@@ -9539,7 +9581,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -9602,15 +9644,17 @@
         <v>6</v>
       </c>
       <c r="H105" t="n">
+        <v>6</v>
+      </c>
+      <c r="I105" t="n">
         <v>3</v>
       </c>
-      <c r="I105" t="n">
-        <v>6</v>
-      </c>
       <c r="J105" t="n">
-        <v>6</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="K105" t="n">
+        <v>4</v>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
@@ -9623,12 +9667,12 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="T105" t="inlineStr"/>
@@ -9639,12 +9683,12 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
+          <t>28 Sep 1988</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="X105" t="inlineStr"/>
@@ -9658,54 +9702,48 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
+          <t xml:space="preserve"> 15 Jul - 17 Jul 2016</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
+          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Fast</t>
+          <t xml:space="preserve"> Medium Slow</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Slazenger Wimbledon</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I106" t="n">
-        <v>7</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3</v>
-      </c>
-      <c r="K106" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
-        <v>7</v>
-      </c>
+      <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr">
@@ -9715,26 +9753,30 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>Andy Murray</t>
+          <t>John Isner</t>
         </is>
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>15 May 1987</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr"/>
+          <t>26 Apr 1985</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
@@ -9746,54 +9788,48 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
+          <t xml:space="preserve"> 15 Jul - 17 Jul 2016</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
+          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Fast</t>
+          <t xml:space="preserve"> Medium Slow</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Slazenger Wimbledon</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6</v>
-      </c>
-      <c r="K107" t="n">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
-        <v>5</v>
-      </c>
+      <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
@@ -9803,26 +9839,30 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>Juan Martin Del Potro</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>23 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr"/>
+          <t>14 Nov 1996</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
@@ -9834,50 +9874,48 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
+          <t xml:space="preserve"> 15 Jul - 17 Jul 2016</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
+          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Fast</t>
+          <t xml:space="preserve"> Medium Slow</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Slazenger Wimbledon</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
+        <v>6</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
         <v>4</v>
       </c>
-      <c r="I108" t="n">
-        <v>3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2</v>
-      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>7</v>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -9889,36 +9927,36 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>Kyle Edmund</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr"/>
+          <t>Bob Bryan</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Mike Bryan</t>
+        </is>
+      </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>08 Jan 1995</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>1046=</t>
-        </is>
-      </c>
-      <c r="Y108" t="inlineStr"/>
+          <t>29 Apr 1978</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>29 Apr 1978</t>
+        </is>
+      </c>
       <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="n">
@@ -9928,39 +9966,39 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
+          <t xml:space="preserve"> 15 Jul - 17 Jul 2016</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
+          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Fast</t>
+          <t xml:space="preserve"> Medium Slow</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Slazenger Wimbledon</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="G109" t="n">
         <v>6</v>
       </c>
       <c r="H109" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
         <v>6</v>
@@ -9969,9 +10007,7 @@
         <v>6</v>
       </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>5</v>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -9983,34 +10019,46 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>Guido Pella</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr"/>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>17 May 1990</t>
+          <t>28 Sep 1988</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>1080=</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>02 Jan 1985</t>
+        </is>
+      </c>
       <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="AB109" t="n">
         <v>2016</v>
       </c>
@@ -10018,32 +10066,32 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
+          <t xml:space="preserve"> 15 Jul - 17 Jul 2016</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
+          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Fast</t>
+          <t xml:space="preserve"> Medium Slow</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Slazenger Wimbledon</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10053,13 +10101,13 @@
         <v>3</v>
       </c>
       <c r="I110" t="n">
-        <v>6</v>
-      </c>
-      <c r="J110" t="n">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>9</v>
+      </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -10071,42 +10119,34 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>Andy Murray</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>Jamie Murray</t>
-        </is>
-      </c>
+          <t>John Isner</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>15 May 1987</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr"/>
+          <t>26 Apr 1985</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
       <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr">
-        <is>
-          <t>13 Feb 1986</t>
-        </is>
-      </c>
+      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
+      <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="n">
         <v>2016</v>
       </c>
@@ -10114,48 +10154,48 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
+          <t xml:space="preserve"> 15 Jul - 17 Jul 2016</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
+          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Fast</t>
+          <t xml:space="preserve"> Medium Slow</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Slazenger Wimbledon</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H111" t="n">
         <v>6</v>
       </c>
       <c r="I111" t="n">
-        <v>4</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>11</v>
+      </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -10167,36 +10207,32 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>Juan Martin Del Potro</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>Leonardo Mayer</t>
-        </is>
-      </c>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>23 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr"/>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
       <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr">
-        <is>
-          <t>15 May 1987</t>
-        </is>
-      </c>
+      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="n">
@@ -10206,44 +10242,46 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
+          <t xml:space="preserve"> 15 Jul - 17 Jul 2016</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
+          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Fast</t>
+          <t xml:space="preserve"> Medium Slow</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Slazenger Wimbledon</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
         <v>6</v>
       </c>
       <c r="I112" t="n">
-        <v>6</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -10257,23 +10295,23 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>Andy Murray</t>
+          <t>Jack Sock</t>
         </is>
       </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>15 May 1987</t>
+          <t>24 Sep 1992</t>
         </is>
       </c>
       <c r="W112" t="inlineStr"/>
@@ -10288,44 +10326,46 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
+          <t xml:space="preserve"> 15 Jul - 17 Jul 2016</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
+          <t xml:space="preserve"> Tualatin Hills Tennis Center, Portland, Oregon, USA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Outdoor</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Fast</t>
+          <t xml:space="preserve"> Medium Slow</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Slazenger Wimbledon</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>6</v>
+      </c>
+      <c r="H113" t="n">
         <v>3</v>
       </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
       <c r="I113" t="n">
-        <v>3</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J113" t="n">
+        <v>6</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
@@ -10339,28 +10379,28 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>Guido Pella</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>17 May 1990</t>
+          <t>14 Nov 1996</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>1080=</t>
+          <t>98</t>
         </is>
       </c>
       <c r="X113" t="inlineStr"/>
@@ -10403,21 +10443,25 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
+        <v>7</v>
+      </c>
+      <c r="I114" t="n">
+        <v>7</v>
+      </c>
+      <c r="J114" t="n">
         <v>3</v>
       </c>
-      <c r="I114" t="n">
-        <v>2</v>
-      </c>
-      <c r="J114" t="n">
+      <c r="K114" t="n">
         <v>4</v>
       </c>
-      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>7</v>
+      </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr">
@@ -10427,12 +10471,12 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>Daniel Evans</t>
+          <t>Andy Murray</t>
         </is>
       </c>
       <c r="T114" t="inlineStr"/>
@@ -10443,19 +10487,11 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>23 May 1990</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>865</t>
-        </is>
-      </c>
+          <t>15 May 1987</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr"/>
@@ -10495,10 +10531,10 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H115" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I115" t="n">
         <v>6</v>
@@ -10506,10 +10542,14 @@
       <c r="J115" t="n">
         <v>6</v>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>6</v>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>5</v>
+      </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr">
@@ -10519,12 +10559,12 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>Leonardo Mayer</t>
+          <t>Juan Martin Del Potro</t>
         </is>
       </c>
       <c r="T115" t="inlineStr"/>
@@ -10535,7 +10575,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>15 May 1987</t>
+          <t>23 Sep 1988</t>
         </is>
       </c>
       <c r="W115" t="inlineStr"/>
@@ -10555,22 +10595,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
+          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium Fast</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Slazenger Wimbledon</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -10579,20 +10619,22 @@
         </is>
       </c>
       <c r="G116" t="n">
+        <v>7</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" t="n">
         <v>2</v>
       </c>
-      <c r="H116" t="n">
-        <v>6</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>5</v>
-      </c>
+      <c r="L116" t="n">
+        <v>7</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
@@ -10603,31 +10645,35 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Kyle Edmund</t>
         </is>
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
+          <t>08 Jan 1995</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr"/>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>1046=</t>
+        </is>
+      </c>
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="inlineStr"/>
@@ -10643,22 +10689,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
+          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium Fast</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Slazenger Wimbledon</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -10670,17 +10716,19 @@
         <v>6</v>
       </c>
       <c r="H117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I117" t="n">
         <v>6</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>7</v>
-      </c>
+      <c r="L117" t="n">
+        <v>5</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
@@ -10691,28 +10739,28 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>Richard Gasquet</t>
+          <t>Guido Pella</t>
         </is>
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>18 Jun 1986</t>
+          <t>17 May 1990</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>1079=</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
@@ -10731,22 +10779,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
+          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium Fast</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Slazenger Wimbledon</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -10758,19 +10806,17 @@
         <v>6</v>
       </c>
       <c r="H118" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J118" t="n">
         <v>6</v>
       </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>7</v>
-      </c>
+      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
@@ -10781,34 +10827,42 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr"/>
+          <t>Andy Murray</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Jamie Murray</t>
+        </is>
+      </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
+          <t>15 May 1987</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>13 Feb 1986</t>
+        </is>
+      </c>
       <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="AB118" t="n">
         <v>2016</v>
       </c>
@@ -10821,22 +10875,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
+          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium Fast</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Slazenger Wimbledon</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -10851,16 +10905,14 @@
         <v>6</v>
       </c>
       <c r="I119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>4</v>
-      </c>
+      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
@@ -10871,36 +10923,36 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr"/>
+          <t>Juan Martin Del Potro</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Leonardo Mayer</t>
+        </is>
+      </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>23 Feb 1994</t>
-        </is>
-      </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="Y119" t="inlineStr"/>
+          <t>23 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>15 May 1987</t>
+        </is>
+      </c>
       <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="n">
@@ -10915,22 +10967,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
+          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium Fast</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Slazenger Wimbledon</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -10939,25 +10991,19 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H120" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I120" t="n">
-        <v>7</v>
-      </c>
-      <c r="J120" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>8</v>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
-        <v>8</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr">
@@ -10967,46 +11013,30 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
+          <t>Andy Murray</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W120" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
+          <t>15 May 1987</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr">
-        <is>
-          <t>02 Jan 1985</t>
-        </is>
-      </c>
+      <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+      <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="n">
         <v>2016</v>
       </c>
@@ -11019,22 +11049,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
+          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium Fast</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Slazenger Wimbledon</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -11043,25 +11073,19 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H121" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>6</v>
-      </c>
-      <c r="J121" t="n">
         <v>3</v>
       </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>6</v>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
-        <v>6</v>
-      </c>
+      <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr">
@@ -11071,50 +11095,34 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>Pierre-Hugues Herbert</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>Nicolas Mahut</t>
-        </is>
-      </c>
+          <t>Guido Pella</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>18 Mar 1991</t>
+          <t>17 May 1990</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="X121" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="Y121" t="inlineStr">
-        <is>
-          <t>21 Jan 1982</t>
-        </is>
-      </c>
+          <t>1079=</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="n">
         <v>2016</v>
       </c>
@@ -11127,22 +11135,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
+          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium Fast</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Slazenger Wimbledon</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -11154,12 +11162,14 @@
         <v>6</v>
       </c>
       <c r="H122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>7</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
@@ -11173,31 +11183,35 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Daniel Evans</t>
         </is>
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
+          <t>23 May 1990</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="X122" t="inlineStr"/>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
@@ -11213,22 +11227,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
+          <t xml:space="preserve"> Emirates Arena, Glasgow, Great Britain</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medium Slow</t>
+          <t xml:space="preserve"> Medium Fast</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Slazenger Wimbledon</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -11237,15 +11251,17 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I123" t="n">
-        <v>5</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>6</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -11259,30 +11275,26 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>Richard Gasquet</t>
+          <t>Leonardo Mayer</t>
         </is>
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>18 Jun 1986</t>
-        </is>
-      </c>
-      <c r="W123" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
+          <t>15 May 1987</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr"/>
@@ -11323,16 +11335,20 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>4</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>5</v>
+      </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
@@ -11343,12 +11359,12 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>Marin Draganja</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T124" t="inlineStr"/>
@@ -11359,10 +11375,14 @@
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>13 May 1991</t>
-        </is>
-      </c>
-      <c r="W124" t="inlineStr"/>
+          <t>14 Nov 1996</t>
+        </is>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
       <c r="X124" t="inlineStr"/>
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr"/>
@@ -11406,13 +11426,17 @@
         <v>6</v>
       </c>
       <c r="H125" t="n">
-        <v>6</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I125" t="n">
+        <v>6</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>7</v>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
@@ -11423,12 +11447,12 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
+          <t>Richard Gasquet</t>
         </is>
       </c>
       <c r="T125" t="inlineStr"/>
@@ -11439,19 +11463,15 @@
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>23 Feb 1994</t>
+          <t>18 Jun 1986</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="X125" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="X125" t="inlineStr"/>
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="inlineStr"/>
@@ -11462,12 +11482,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -11487,7 +11507,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>DAVIS CUP  FINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11497,16 +11517,16 @@
         <v>7</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>7</v>
+      </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
@@ -11517,7 +11537,7 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -11538,7 +11558,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="X126" t="inlineStr"/>
@@ -11552,12 +11572,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -11577,26 +11597,26 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>DAVIS CUP  FINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I127" t="n">
         <v>6</v>
       </c>
       <c r="J127" t="n">
-        <v>6</v>
-      </c>
-      <c r="K127" t="n">
         <v>2</v>
       </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>4</v>
+      </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
@@ -11607,33 +11627,33 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>Federico Delbonis</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>05 Oct 1990</t>
+          <t>23 Feb 1994</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>147</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>1247=</t>
+          <t>291</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr"/>
@@ -11646,12 +11666,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -11671,27 +11691,29 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>DAVIS CUP  FINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H128" t="n">
+        <v>5</v>
+      </c>
+      <c r="I128" t="n">
         <v>7</v>
       </c>
-      <c r="I128" t="n">
-        <v>3</v>
-      </c>
       <c r="J128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
         <v>8</v>
       </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>8</v>
+      </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr">
@@ -11701,15 +11723,19 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>Ivo Karlovic</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr"/>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
       <c r="U128" t="inlineStr">
         <is>
           <t>CROATIA</t>
@@ -11717,14 +11743,26 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>28 Feb 1979</t>
-        </is>
-      </c>
-      <c r="W128" t="inlineStr"/>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
       <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>02 Jan 1985</t>
+        </is>
+      </c>
       <c r="Z128" t="inlineStr"/>
-      <c r="AA128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="AB128" t="n">
         <v>2016</v>
       </c>
@@ -11732,12 +11770,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -11757,27 +11795,29 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>DAVIS CUP  FINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="G129" t="n">
         <v>6</v>
       </c>
       <c r="H129" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I129" t="n">
         <v>6</v>
       </c>
       <c r="J129" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>6</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>6</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>6</v>
+      </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr">
@@ -11787,30 +11827,50 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>Juan Martin Del Potro</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr"/>
+          <t>Pierre-Hugues Herbert</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>Nicolas Mahut</t>
+        </is>
+      </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>23 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
+          <t>18 Mar 1991</t>
+        </is>
+      </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>21 Jan 1982</t>
+        </is>
+      </c>
       <c r="Z129" t="inlineStr"/>
-      <c r="AA129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="AB129" t="n">
         <v>2016</v>
       </c>
@@ -11818,12 +11878,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -11843,26 +11903,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>DAVIS CUP  FINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="G130" t="n">
+        <v>6</v>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+      <c r="I130" t="n">
         <v>7</v>
-      </c>
-      <c r="H130" t="n">
-        <v>7</v>
-      </c>
-      <c r="I130" t="n">
-        <v>6</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>7</v>
-      </c>
-      <c r="M130" t="n">
-        <v>7</v>
-      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
@@ -11873,7 +11929,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
@@ -11881,11 +11937,7 @@
           <t>Marin Cilic</t>
         </is>
       </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
+      <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr">
         <is>
           <t>CROATIA</t>
@@ -11898,21 +11950,13 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr">
-        <is>
-          <t>02 Jan 1985</t>
-        </is>
-      </c>
+      <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr"/>
-      <c r="AA130" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+      <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="n">
         <v>2016</v>
       </c>
@@ -11920,12 +11964,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -11945,26 +11989,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>DAVIS CUP  FINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>2</v>
-      </c>
-      <c r="M131" t="n">
-        <v>4</v>
-      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
@@ -11975,36 +12015,32 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>Juan Martin Del Potro</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>Leonardo Mayer</t>
-        </is>
-      </c>
+          <t>Richard Gasquet</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>23 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W131" t="inlineStr"/>
+          <t>18 Jun 1986</t>
+        </is>
+      </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
       <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr">
-        <is>
-          <t>15 May 1987</t>
-        </is>
-      </c>
+      <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="n">
@@ -12014,12 +12050,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -12039,27 +12075,19 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>DAVIS CUP  FINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H132" t="n">
-        <v>6</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5</v>
-      </c>
-      <c r="J132" t="n">
         <v>4</v>
       </c>
-      <c r="K132" t="n">
-        <v>3</v>
-      </c>
-      <c r="L132" t="n">
-        <v>7</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -12071,12 +12099,12 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Marin Draganja</t>
         </is>
       </c>
       <c r="T132" t="inlineStr"/>
@@ -12087,14 +12115,10 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W132" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
+          <t>13 May 1991</t>
+        </is>
+      </c>
+      <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr"/>
@@ -12106,12 +12130,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+          <t xml:space="preserve"> 16 Sep - 18 Sep 2016</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+          <t xml:space="preserve"> Kresimir Cosic Hall, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -12131,27 +12155,19 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>DAVIS CUP  FINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="G133" t="n">
         <v>6</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>7</v>
-      </c>
-      <c r="J133" t="n">
-        <v>6</v>
-      </c>
-      <c r="K133" t="n">
-        <v>6</v>
-      </c>
-      <c r="L133" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -12163,27 +12179,35 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>Juan Martin Del Potro</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>23 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
+          <t>23 Feb 1994</t>
+        </is>
+      </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="inlineStr"/>
@@ -12223,16 +12247,20 @@
         </is>
       </c>
       <c r="G134" t="n">
+        <v>6</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+      <c r="I134" t="n">
         <v>3</v>
       </c>
-      <c r="H134" t="n">
-        <v>4</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>6</v>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
@@ -12245,12 +12273,12 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>Ivo Karlovic</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="T134" t="inlineStr"/>
@@ -12261,10 +12289,14 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>28 Feb 1979</t>
-        </is>
-      </c>
-      <c r="W134" t="inlineStr"/>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
       <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr"/>
@@ -12305,16 +12337,20 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H135" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I135" t="n">
         <v>6</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
@@ -12327,7 +12363,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -12348,12 +12384,12 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>952</t>
         </is>
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>1247=</t>
+          <t>1252=</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr"/>
@@ -12363,6 +12399,726 @@
         <v>2016</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Slow</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>4</v>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3</v>
+      </c>
+      <c r="J136" t="n">
+        <v>5</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>8</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>Ivo Karlovic</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>28 Feb 1979</t>
+        </is>
+      </c>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Slow</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>6</v>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+      <c r="I137" t="n">
+        <v>6</v>
+      </c>
+      <c r="J137" t="n">
+        <v>7</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>6</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>Juan Martin Del Potro</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>23 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Slow</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>7</v>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+      <c r="I138" t="n">
+        <v>6</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>7</v>
+      </c>
+      <c r="M138" t="n">
+        <v>7</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>02 Jan 1985</t>
+        </is>
+      </c>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AB138" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Slow</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>6</v>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="n">
+        <v>4</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>Juan Martin Del Potro</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>Leonardo Mayer</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>23 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>15 May 1987</t>
+        </is>
+      </c>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Slow</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>7</v>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+      <c r="I140" t="n">
+        <v>5</v>
+      </c>
+      <c r="J140" t="n">
+        <v>4</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3</v>
+      </c>
+      <c r="L140" t="n">
+        <v>7</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>MATCH 4</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Slow</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>6</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+      <c r="I141" t="n">
+        <v>7</v>
+      </c>
+      <c r="J141" t="n">
+        <v>6</v>
+      </c>
+      <c r="K141" t="n">
+        <v>6</v>
+      </c>
+      <c r="L141" t="n">
+        <v>4</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>MATCH 4</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>Juan Martin Del Potro</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>23 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Slow</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>3</v>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>MATCH 5</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Ivo Karlovic</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>28 Feb 1979</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 Nov - 27 Nov 2016</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arena Zagreb, Zagreb, Croatia</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Slow</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>DAVIS CUP  FINAL</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>6</v>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+      <c r="I143" t="n">
+        <v>6</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>MATCH 5</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>Federico Delbonis</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>05 Oct 1990</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>1252=</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="n">
+        <v>2016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
